--- a/Data/GP2_BLOOD TRAITS.xlsx
+++ b/Data/GP2_BLOOD TRAITS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaph\Dropbox\_ICIPE-2023\1_PROJECTS\GUINEA PIGS\DATA - SET 2\DATA FOR ANALYSIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E83BD0A8-7938-4C9F-9144-3DAE6B942F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CEF081-1742-447A-941C-E3EC714F306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B3FF54D-4D04-4FC9-AD64-60A5BE9D2C70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B3FF54D-4D04-4FC9-AD64-60A5BE9D2C70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Diet</t>
   </si>
@@ -113,9 +113,6 @@
     <t>TRIG</t>
   </si>
   <si>
-    <t>HDL</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -168,13 +165,28 @@
   </si>
   <si>
     <t>G16</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>NON_HDL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -598,16 +616,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EB7A20-23B3-4962-A920-1FADD0CAAEA4}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -687,18 +708,18 @@
         <v>24</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>5.61</v>
@@ -767,18 +788,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Z2" s="1">
-        <v>0.05</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>5.36</v>
@@ -847,18 +868,18 @@
         <v>0.9</v>
       </c>
       <c r="Z3" s="1">
-        <v>0.05</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>5.57</v>
@@ -927,18 +948,18 @@
         <v>3</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>5.3</v>
@@ -1007,18 +1028,18 @@
         <v>0.9</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>5.24</v>
@@ -1087,18 +1108,18 @@
         <v>0.6</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.05</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2</v>
+      <c r="A7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>6.46</v>
@@ -1167,18 +1188,18 @@
         <v>0.8</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.05</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2</v>
+      <c r="A8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>5.7</v>
@@ -1247,18 +1268,18 @@
         <v>0.8</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.05</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2</v>
+      <c r="A9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>5.41</v>
@@ -1327,18 +1348,18 @@
         <v>0.7</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>3</v>
+      <c r="A10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>5.48</v>
@@ -1407,18 +1428,18 @@
         <v>0.6</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>3</v>
+      <c r="A11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>6.66</v>
@@ -1487,18 +1508,18 @@
         <v>1.3</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>3</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
         <v>5.72</v>
@@ -1567,18 +1588,18 @@
         <v>0.9</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>3</v>
+      <c r="A13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>5.42</v>
@@ -1647,18 +1668,18 @@
         <v>0.6</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.05</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>4</v>
+      <c r="A14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>5.94</v>
@@ -1727,18 +1748,18 @@
         <v>1</v>
       </c>
       <c r="Z14" s="1">
-        <v>0.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>4</v>
+      <c r="A15" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
         <v>5.82</v>
@@ -1807,18 +1828,18 @@
         <v>0.8</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.05</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>4</v>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
         <v>5.76</v>
@@ -1887,18 +1908,18 @@
         <v>1.5</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.2</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>4</v>
+      <c r="A17" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1">
         <v>6.05</v>
@@ -1967,10 +1988,11 @@
         <v>1.2</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.05</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>